--- a/input/02_market_characterization.xlsx
+++ b/input/02_market_characterization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/market_inputs/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{703DD853-A049-453F-A179-E522B443D30A}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66A5574B-1D4C-4D1A-B866-024E99076757}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
         <v>0.1</v>
@@ -1195,6 +1195,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B011C3FEFFEFCF44990405A8404263A2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1019b97992c14b0ad4b597aaa0d4ffdf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfcefbd2d97d1dabd843dc4e1de334f1" ns2:_="">
     <xsd:import namespace="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a"/>
@@ -1338,22 +1353,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56E778D5-A61F-4975-B41D-A8B9D2EC63D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1369,21 +1386,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>